--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/16.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/16.xlsx
@@ -479,13 +479,13 @@
         <v>0.2442717918879284</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.628524928302489</v>
+        <v>-1.628901118872479</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01935504026523413</v>
+        <v>0.01234750713720347</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2292990564031207</v>
+        <v>-0.2310509396851284</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2409151774432606</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.654235743639374</v>
+        <v>-1.654578879807818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02083304422013548</v>
+        <v>0.01243093015063241</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2049080560994453</v>
+        <v>-0.207283250953488</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2479968589368703</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.706091803590626</v>
+        <v>-1.70497110197626</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0189329748604051</v>
+        <v>-0.02654178329277262</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2146103099631427</v>
+        <v>-0.217135036633709</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2676216573720359</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.818569635979651</v>
+        <v>-1.818322514977607</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0230553309390916</v>
+        <v>-0.03000305134051284</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2331144787531536</v>
+        <v>-0.2347404405054572</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3002356732600716</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.781824946602448</v>
+        <v>-1.777986700975156</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005943063584512352</v>
+        <v>-0.005471963335041616</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2281421523489647</v>
+        <v>-0.2295115489844963</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.3434271655344645</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.601461243530844</v>
+        <v>-1.599200165063096</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0639107995318927</v>
+        <v>0.05720390405603047</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2122571513767982</v>
+        <v>-0.2140232008308975</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.3925727973783644</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.341128711991999</v>
+        <v>-1.339064385914413</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1027497213499872</v>
+        <v>0.09899725976480633</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2017411296273883</v>
+        <v>-0.2023880514862429</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4409851633017768</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9355299557483133</v>
+        <v>-0.9355535660351328</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1970791132704161</v>
+        <v>0.1920516961969817</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.177853815442529</v>
+        <v>-0.1759256420189357</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4813092796812408</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4965564850661284</v>
+        <v>-0.4940758309309585</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2103890189601347</v>
+        <v>0.2037718425741866</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1319097713108833</v>
+        <v>-0.1305875952489907</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.5069080007908282</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02501498474511096</v>
+        <v>-0.02401548260308502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.184965462112886</v>
+        <v>0.1809942118698444</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06754025934529163</v>
+        <v>-0.06687917131434534</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.515027045253844</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5231733766876435</v>
+        <v>0.5232536516628298</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1458888634074751</v>
+        <v>0.1387192063099505</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02532686881144894</v>
+        <v>0.02708347415082051</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5070655822588573</v>
       </c>
       <c r="E13" t="n">
-        <v>1.087717370809833</v>
+        <v>1.086615557424923</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02810973461790856</v>
+        <v>0.0229375077853145</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1299613639190335</v>
+        <v>0.1327237674769162</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4874312467743502</v>
       </c>
       <c r="E14" t="n">
-        <v>1.68827177438914</v>
+        <v>1.687187275214564</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1742981062475108</v>
+        <v>-0.179544311978806</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2494923759906077</v>
+        <v>0.2528843871970107</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4607761754241785</v>
       </c>
       <c r="E15" t="n">
-        <v>2.32742112682274</v>
+        <v>2.324304568962565</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4475037531699138</v>
+        <v>-0.4530317083239218</v>
       </c>
       <c r="G15" t="n">
-        <v>0.372568079123351</v>
+        <v>0.3771232904603953</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4317712591101396</v>
       </c>
       <c r="E16" t="n">
-        <v>2.947117176936185</v>
+        <v>2.94541723628518</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6845510328377974</v>
+        <v>-0.689276238239942</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5196412777794447</v>
+        <v>0.5220983216277951</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4046116830836656</v>
       </c>
       <c r="E17" t="n">
-        <v>3.544575484903894</v>
+        <v>3.541957891105171</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9273631575374447</v>
+        <v>-0.9326306125268774</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6811324915866527</v>
+        <v>0.6844410797796268</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3838980220689976</v>
       </c>
       <c r="E18" t="n">
-        <v>4.108576442429235</v>
+        <v>4.103835496835877</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.151368114766231</v>
+        <v>-1.155524312256025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8151255913447376</v>
+        <v>0.8176912425124577</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3728058261611916</v>
       </c>
       <c r="E19" t="n">
-        <v>4.580461078918695</v>
+        <v>4.575920033753743</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.367783938801665</v>
+        <v>-1.37246034961105</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9907278865744062</v>
+        <v>0.9953114302556338</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3727228617549035</v>
       </c>
       <c r="E20" t="n">
-        <v>4.942630286577013</v>
+        <v>4.938281271744859</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.54328392278845</v>
+        <v>-1.551032818922613</v>
       </c>
       <c r="G20" t="n">
-        <v>1.126674344062025</v>
+        <v>1.130858086886443</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3838969677925935</v>
       </c>
       <c r="E21" t="n">
-        <v>5.2807516301001</v>
+        <v>5.276764639665845</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.757622041583768</v>
+        <v>-1.764153433927605</v>
       </c>
       <c r="G21" t="n">
-        <v>1.259617573066203</v>
+        <v>1.264937757696199</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4048270975781261</v>
       </c>
       <c r="E22" t="n">
-        <v>5.572565331074519</v>
+        <v>5.568178539783454</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.911635090545676</v>
+        <v>-1.920071833035848</v>
       </c>
       <c r="G22" t="n">
-        <v>1.366847625704812</v>
+        <v>1.372646312147684</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4334161170901992</v>
       </c>
       <c r="E23" t="n">
-        <v>5.734250149233647</v>
+        <v>5.730886470371428</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.040618874450221</v>
+        <v>-2.050336868505132</v>
       </c>
       <c r="G23" t="n">
-        <v>1.473932868584262</v>
+        <v>1.478776125420504</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.4671998326782136</v>
       </c>
       <c r="E24" t="n">
-        <v>5.890537655825835</v>
+        <v>5.887835064994562</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.13310823801785</v>
+        <v>-2.140089799830379</v>
       </c>
       <c r="G24" t="n">
-        <v>1.516601378924481</v>
+        <v>1.522757367707888</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5036616527761265</v>
       </c>
       <c r="E25" t="n">
-        <v>5.984726960044468</v>
+        <v>5.982743695951629</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.167051960368699</v>
+        <v>-2.176949392603438</v>
       </c>
       <c r="G25" t="n">
-        <v>1.588968482045401</v>
+        <v>1.594636524901205</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.5392024894168596</v>
       </c>
       <c r="E26" t="n">
-        <v>6.043551202645718</v>
+        <v>6.041634047355974</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.190814927042976</v>
+        <v>-2.200365288061468</v>
       </c>
       <c r="G26" t="n">
-        <v>1.656366406800375</v>
+        <v>1.658096253814685</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.5708287663104812</v>
       </c>
       <c r="E27" t="n">
-        <v>6.032717229033805</v>
+        <v>6.030126393560144</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.188804117615514</v>
+        <v>-2.196319271910164</v>
       </c>
       <c r="G27" t="n">
-        <v>1.630031492881894</v>
+        <v>1.63438365575229</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.5959517095315781</v>
       </c>
       <c r="E28" t="n">
-        <v>5.971701951815705</v>
+        <v>5.971842039517501</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.204557687991052</v>
+        <v>-2.211311804040553</v>
       </c>
       <c r="G28" t="n">
-        <v>1.625356656091631</v>
+        <v>1.627604355396848</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.614796606416961</v>
       </c>
       <c r="E29" t="n">
-        <v>5.872677260856436</v>
+        <v>5.8723199585159</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.158054867071344</v>
+        <v>-2.16282886706625</v>
       </c>
       <c r="G29" t="n">
-        <v>1.599322379825317</v>
+        <v>1.601101021432387</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6273819726432387</v>
       </c>
       <c r="E30" t="n">
-        <v>5.741969139004506</v>
+        <v>5.741174259348249</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.157145084019233</v>
+        <v>-2.160122341187173</v>
       </c>
       <c r="G30" t="n">
-        <v>1.533330054145664</v>
+        <v>1.534494828295427</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6346284753511208</v>
       </c>
       <c r="E31" t="n">
-        <v>5.546595589592179</v>
+        <v>5.549006986886011</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.105082040553531</v>
+        <v>-2.109342123305331</v>
       </c>
       <c r="G31" t="n">
-        <v>1.470762794073962</v>
+        <v>1.472423384246935</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6370952812164482</v>
       </c>
       <c r="E32" t="n">
-        <v>5.368649579890894</v>
+        <v>5.371156992351126</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.029732171197745</v>
+        <v>-2.03294474422432</v>
       </c>
       <c r="G32" t="n">
-        <v>1.428812036453056</v>
+        <v>1.430471052606907</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6352142741566222</v>
       </c>
       <c r="E33" t="n">
-        <v>5.108229690290816</v>
+        <v>5.113011560381328</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.992929243113053</v>
+        <v>-1.996015107600363</v>
       </c>
       <c r="G33" t="n">
-        <v>1.369994089928292</v>
+        <v>1.371638939910051</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6290043027945792</v>
       </c>
       <c r="E34" t="n">
-        <v>4.88945205056387</v>
+        <v>4.892907022535125</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.925041011401794</v>
+        <v>-1.927494907211902</v>
       </c>
       <c r="G34" t="n">
-        <v>1.274229192569237</v>
+        <v>1.275541924516402</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.617827997656377</v>
       </c>
       <c r="E35" t="n">
-        <v>4.603835262870011</v>
+        <v>4.606227771934388</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.888069663271123</v>
+        <v>-1.891341262014746</v>
       </c>
       <c r="G35" t="n">
-        <v>1.189902692164674</v>
+        <v>1.19113200109841</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6018560767830277</v>
       </c>
       <c r="E36" t="n">
-        <v>4.237057327224525</v>
+        <v>4.240107776281605</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.850972393610747</v>
+        <v>-1.853034358659651</v>
       </c>
       <c r="G36" t="n">
-        <v>1.140571358883989</v>
+        <v>1.14166215413505</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5805463403092286</v>
       </c>
       <c r="E37" t="n">
-        <v>3.928447268206705</v>
+        <v>3.932294170939164</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.811922553230399</v>
+        <v>-1.814837636643048</v>
       </c>
       <c r="G37" t="n">
-        <v>1.057815729562484</v>
+        <v>1.058862452278149</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5546984964864112</v>
       </c>
       <c r="E38" t="n">
-        <v>3.648155387200207</v>
+        <v>3.652087286965216</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.734986859609903</v>
+        <v>-1.738643306028685</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9834165677559646</v>
+        <v>0.9845215291791177</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5250842081804432</v>
       </c>
       <c r="E39" t="n">
-        <v>3.309014079286518</v>
+        <v>3.313533088183772</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.695711147485648</v>
+        <v>-1.699436850745766</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8997243970572857</v>
+        <v>0.9014825764157786</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4933452265756942</v>
       </c>
       <c r="E40" t="n">
-        <v>2.983311746630494</v>
+        <v>2.987922048636784</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.655194321284247</v>
+        <v>-1.658499761438978</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8398203773388242</v>
+        <v>0.841610037079743</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4603416561297758</v>
       </c>
       <c r="E41" t="n">
-        <v>2.664631113274593</v>
+        <v>2.670349524742278</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.633747523746964</v>
+        <v>-1.635736296906728</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7856158808585924</v>
+        <v>0.7863084492719646</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4278672624330692</v>
       </c>
       <c r="E42" t="n">
-        <v>2.331110627643069</v>
+        <v>2.336201005481355</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.581822993963936</v>
+        <v>-1.583444233658876</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7258031542491662</v>
+        <v>0.7268058044294348</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3960045712068</v>
       </c>
       <c r="E43" t="n">
-        <v>2.076783766061546</v>
+        <v>2.081688409643519</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.529950406811912</v>
+        <v>-1.53125526866347</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6501054266675735</v>
+        <v>0.6514653791883773</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3657332757626074</v>
       </c>
       <c r="E44" t="n">
-        <v>1.823509923272174</v>
+        <v>1.827840049874872</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.509549544980733</v>
+        <v>-1.510883526186036</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5635375230342783</v>
+        <v>0.5646519285721592</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3369843510101595</v>
       </c>
       <c r="E45" t="n">
-        <v>1.598082052757732</v>
+        <v>1.601809330036972</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.429396556276299</v>
+        <v>-1.430688038965326</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5083020440295946</v>
+        <v>0.5091520143550969</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3102201117435355</v>
       </c>
       <c r="E46" t="n">
-        <v>1.388109475995342</v>
+        <v>1.392622188816111</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.369347726798678</v>
+        <v>-1.371077573812987</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4465879023216372</v>
+        <v>0.4472442682952196</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2855306949411749</v>
       </c>
       <c r="E47" t="n">
-        <v>1.235456379554237</v>
+        <v>1.238214061054756</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.322984206571205</v>
+        <v>-1.325118576499689</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3831486356567343</v>
+        <v>0.3834949198634204</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2629340063274971</v>
       </c>
       <c r="E48" t="n">
-        <v>1.026872087656834</v>
+        <v>1.0306308453185</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.243553692643448</v>
+        <v>-1.245403952120537</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2973268170869356</v>
+        <v>0.2997775648588007</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2422762800250908</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8703783845597557</v>
+        <v>0.8731911567295201</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.172277384773589</v>
+        <v>-1.174732854602818</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2525160667226263</v>
+        <v>0.2553304129115119</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2232927338631906</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7706626992062359</v>
+        <v>0.7720006154593414</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.100296703346948</v>
+        <v>-1.102956008652386</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2144248039871497</v>
+        <v>0.2165686180303612</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2054668996715323</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6363469255282842</v>
+        <v>0.637675397666662</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.066940877137905</v>
+        <v>-1.067849873180456</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1732579078886515</v>
+        <v>0.1759211482418923</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1886967267157782</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4624555890834695</v>
+        <v>0.4670265406117267</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.030934402728591</v>
+        <v>-1.033164000813913</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1305028264967609</v>
+        <v>0.1330889399130579</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1727795946231302</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4012498555516922</v>
+        <v>0.4028947055334514</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.027111110282951</v>
+        <v>-1.028748877178665</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1026804645086499</v>
+        <v>0.1042308733431311</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1572968141729004</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2437975748097418</v>
+        <v>0.2461900838741189</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9666915993022637</v>
+        <v>-0.9692407232692102</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05570071579518832</v>
+        <v>0.05783665974279335</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1420990245157503</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1250504242605753</v>
+        <v>0.1268888785942545</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9403149738770674</v>
+        <v>-0.943115940903422</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02861342073672478</v>
+        <v>0.02937367197231301</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1264059718426132</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0359814042435333</v>
+        <v>0.03701868284447045</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9242072491992368</v>
+        <v>-0.9269129880687527</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.007485133791185195</v>
+        <v>-0.00578047108281655</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1106699505658842</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07707724120125251</v>
+        <v>-0.07598329791194852</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.924726675509266</v>
+        <v>-0.9288167641959659</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0507533454166198</v>
+        <v>-0.04884563424160337</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.09430095232825553</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1300429846330206</v>
+        <v>-0.1297942896118551</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9060123751665615</v>
+        <v>-0.9104487480599475</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08009620987590722</v>
+        <v>-0.07894560189823642</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.07790866267449872</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2097670531269005</v>
+        <v>-0.2091657778225636</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9131041183175818</v>
+        <v>-0.917387024346641</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1066231541271877</v>
+        <v>-0.1059919724595461</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.06159829407002602</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3003187991562077</v>
+        <v>-0.300403796188758</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.909158052380481</v>
+        <v>-0.9135165113273626</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1248345553606367</v>
+        <v>-0.1250785283244383</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.04589752492700863</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.393330737072108</v>
+        <v>-0.3945411577763882</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8907380936134597</v>
+        <v>-0.8947164269425472</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1454542058496757</v>
+        <v>-0.1462695477545094</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.03089637177235876</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4996777649836677</v>
+        <v>-0.4991725048457302</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8811294938874796</v>
+        <v>-0.8848457530328705</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1746538345689247</v>
+        <v>-0.1752409437011699</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.01717955585993354</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5648626188540931</v>
+        <v>-0.5695138453575366</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8889334806908884</v>
+        <v>-0.8952043728701503</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1951711738150792</v>
+        <v>-0.1965106640873061</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.004722247877499913</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6825772128596863</v>
+        <v>-0.6851743444098324</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9103543069126695</v>
+        <v>-0.9173854503275196</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2314963870964565</v>
+        <v>-0.2318584114943556</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.006528896599430448</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8033139235781769</v>
+        <v>-0.8058890188606248</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9467157226338366</v>
+        <v>-0.9539499145153346</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2764928717170793</v>
+        <v>-0.2763748202829817</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.01633677722724249</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9012895307930988</v>
+        <v>-0.902968222185966</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9762734407031817</v>
+        <v>-0.9837342913381468</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3021918819105556</v>
+        <v>-0.3018440236847481</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.0251210341398892</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9429530299243674</v>
+        <v>-0.9459224169967011</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.016163020284744</v>
+        <v>-1.022840796406862</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3402674044548192</v>
+        <v>-0.3394394703970151</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.03295571385186855</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9897714416778957</v>
+        <v>-0.9916586906043352</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.024102372732585</v>
+        <v>-1.029738935205963</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3630277209488272</v>
+        <v>-0.3614741640761034</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.03969226409687725</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.051303784177343</v>
+        <v>-1.052489020575682</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.071339473572379</v>
+        <v>-1.076529801624868</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.382081222412172</v>
+        <v>-0.3805764601322085</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.04541989499476803</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.07662817781995</v>
+        <v>-1.076538458730036</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.111865743888508</v>
+        <v>-1.11668381641881</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3942594083536754</v>
+        <v>-0.3911601647038344</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.0499881561230972</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.093416665767743</v>
+        <v>-1.090743194290213</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.121243749813218</v>
+        <v>-1.126127931146614</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4241012368744151</v>
+        <v>-0.4204353463409058</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.05371065044227004</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.113861600134317</v>
+        <v>-1.109421292193128</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.16100032477903</v>
+        <v>-1.164296320819034</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4008514004336827</v>
+        <v>-0.4000895751789731</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.05623607656046627</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.085457638080886</v>
+        <v>-1.07975024474705</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.188087619837494</v>
+        <v>-1.190864976577029</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4069743348155423</v>
+        <v>-0.4068011927121993</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.05790354436012728</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.086960826341728</v>
+        <v>-1.079342573794632</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.209451781370908</v>
+        <v>-1.211311484962725</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4113312197433027</v>
+        <v>-0.4093164752680378</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.05900200685922295</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.042630151809415</v>
+        <v>-1.03479468462358</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.227693875977222</v>
+        <v>-1.231157505053645</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4173361026910648</v>
+        <v>-0.4136025293353395</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.05938284393940565</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9544559616628328</v>
+        <v>-0.9467275277772464</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.239539943884131</v>
+        <v>-1.243166483939608</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3905541673421336</v>
+        <v>-0.3868190199672871</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.05916626944917096</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8924380342644644</v>
+        <v>-0.8824925944465259</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.251027922440944</v>
+        <v>-1.255672852867903</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3733926368625922</v>
+        <v>-0.3692057459999323</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.05885321000403034</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7460983285188968</v>
+        <v>-0.7370304043610836</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.237017578242247</v>
+        <v>-1.243058663629799</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3285850345365255</v>
+        <v>-0.3244768446299307</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.05850614489151482</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6332096771392115</v>
+        <v>-0.623784450640863</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.258362064536645</v>
+        <v>-1.265196455561333</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.31467385354247</v>
+        <v>-0.3098620770886538</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.05827123708310074</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4784237847887445</v>
+        <v>-0.4700389849295757</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.255989230711284</v>
+        <v>-1.263299762520165</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2924817579512516</v>
+        <v>-0.287259162506776</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.05721209454500834</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3343506665778499</v>
+        <v>-0.32534727720401</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.273774072762861</v>
+        <v>-1.281284505000147</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2683992653953511</v>
+        <v>-0.2634411051632539</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.05525100877952688</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1745105988288864</v>
+        <v>-0.1643487313817691</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.285602826459435</v>
+        <v>-1.292527723583598</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2434872647625251</v>
+        <v>-0.2374524754514583</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.05050901550068884</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0197422489690741</v>
+        <v>0.02993244876037476</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.267701506992883</v>
+        <v>-1.275229253440503</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1815606304731922</v>
+        <v>-0.176570989858669</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.04340511281968511</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1836495821274786</v>
+        <v>0.1936965461787409</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.26765035137144</v>
+        <v>-1.272207923737167</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1579046970991641</v>
+        <v>-0.1529685731347652</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.03402432265253706</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3534689311054885</v>
+        <v>0.3635678377877538</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.190022876347133</v>
+        <v>-1.194610355076164</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1135157838593634</v>
+        <v>-0.1086016961626627</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.02275459807093691</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5525807759309043</v>
+        <v>0.5619115612819747</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.120034116118498</v>
+        <v>-1.12384875145897</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06226886930805563</v>
+        <v>-0.05760819868988429</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.01057029089833779</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7400244170101179</v>
+        <v>0.7498478703461555</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.040016493058496</v>
+        <v>-1.044205744949837</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0177981070739473</v>
+        <v>-0.01329011631054213</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.001132864298603828</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8946654996014253</v>
+        <v>0.9030691876900497</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9160294328545191</v>
+        <v>-0.9197252297513331</v>
       </c>
       <c r="G88" t="n">
-        <v>0.006983249971810727</v>
+        <v>0.01129134030681071</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01125266433835788</v>
       </c>
       <c r="E89" t="n">
-        <v>1.033493986100146</v>
+        <v>1.04149787333196</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8123928658698392</v>
+        <v>-0.8160209799444373</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0410151173934529</v>
+        <v>0.04345956908883287</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01802156601314597</v>
       </c>
       <c r="E90" t="n">
-        <v>1.131736389556128</v>
+        <v>1.13944750923138</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6681654937850572</v>
+        <v>-0.672420067469933</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05823488658048242</v>
+        <v>0.06127746554195665</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02063345957051008</v>
       </c>
       <c r="E91" t="n">
-        <v>1.229344463306227</v>
+        <v>1.235511470223483</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4947526591531178</v>
+        <v>-0.499710819385215</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0323233838056305</v>
+        <v>0.03513772999451613</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.01850139650628888</v>
       </c>
       <c r="E92" t="n">
-        <v>1.264523790667297</v>
+        <v>1.27032405112929</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3480225966654677</v>
+        <v>-0.3523180948474973</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05877634915820986</v>
+        <v>0.06145375568354233</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.01043102399608168</v>
       </c>
       <c r="E93" t="n">
-        <v>1.292908077481712</v>
+        <v>1.29827863072359</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2400889574796369</v>
+        <v>-0.2438571592560308</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04404982625932062</v>
+        <v>0.04572930466174846</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.003193614583035605</v>
       </c>
       <c r="E94" t="n">
-        <v>1.242311232827502</v>
+        <v>1.249232194903861</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1139360469647507</v>
+        <v>-0.1161239335433587</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06221558093825186</v>
+        <v>0.06385570886264717</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.0232886434620316</v>
       </c>
       <c r="E95" t="n">
-        <v>1.211307778195242</v>
+        <v>1.216116406610816</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.02320014069825126</v>
+        <v>-0.02566662866132944</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01865302773713403</v>
+        <v>0.02008066308015375</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04869623959949177</v>
       </c>
       <c r="E96" t="n">
-        <v>1.122621244824676</v>
+        <v>1.127728936873297</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05433289317877802</v>
+        <v>0.05195612430561398</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02277987759286398</v>
+        <v>-0.02034644403133311</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07916106304981978</v>
       </c>
       <c r="E97" t="n">
-        <v>1.062531490849901</v>
+        <v>1.067695847586889</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1021027994911326</v>
+        <v>0.09877374904958164</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.009676168408035753</v>
+        <v>-0.01013263395321295</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1119809616986975</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9604846831777348</v>
+        <v>0.9669790860722215</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1007869195057252</v>
+        <v>0.09801821987135731</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06243728935403481</v>
+        <v>-0.05970636617857811</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1452530207264466</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9021153321025415</v>
+        <v>0.9062880567931096</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1154803880030671</v>
+        <v>0.1130831568813262</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05393443806076849</v>
+        <v>-0.05202830090487336</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1743173849271134</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8505362995166392</v>
+        <v>0.8528564037014364</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1084618367411874</v>
+        <v>0.1057214694510029</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06214294777835158</v>
+        <v>-0.06021162631651564</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1962927246140922</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7699827229458339</v>
+        <v>0.7710687961395314</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1038137582759864</v>
+        <v>0.1006074813258969</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06147713769004139</v>
+        <v>-0.0605767987526574</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2096394976847952</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7459427289062085</v>
+        <v>0.7452375683398658</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1050273270185093</v>
+        <v>0.1026773164704073</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06165342783162706</v>
+        <v>-0.0612725152042723</v>
       </c>
     </row>
   </sheetData>
